--- a/TestData/TestFile.xlsx
+++ b/TestData/TestFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>srk@gmail.com</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Nagar</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Dhule</t>
+  </si>
+  <si>
+    <t>Wardha</t>
+  </si>
+  <si>
+    <t>Yavatmal</t>
   </si>
 </sst>
 </file>
@@ -542,32 +554,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
